--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -178,9 +178,6 @@
     <t>Available</t>
   </si>
   <si>
-    <t>How_Many_Sold</t>
-  </si>
-  <si>
     <t>Review_Code</t>
   </si>
   <si>
@@ -308,6 +305,9 @@
   </si>
   <si>
     <t>Option_Cost</t>
+  </si>
+  <si>
+    <t>Sold_Count</t>
   </si>
 </sst>
 </file>
@@ -714,7 +714,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -745,16 +747,16 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -766,10 +768,10 @@
         <v>50</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -781,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -790,19 +792,19 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" t="s">
         <v>54</v>
       </c>
-      <c r="F2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" t="s">
-        <v>55</v>
-      </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J2">
         <v>140</v>
@@ -838,19 +840,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1235,19 +1237,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1255,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
         <v>43</v>
@@ -1269,10 +1271,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1283,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
         <v>41</v>
@@ -1297,7 +1299,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
         <v>42</v>
@@ -1311,7 +1313,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
         <v>48</v>
@@ -1342,7 +1344,7 @@
         <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1372,19 +1374,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1392,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -1462,10 +1464,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1526,7 +1528,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -1537,7 +1539,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -1548,7 +1550,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5">
         <v>40</v>
@@ -1559,7 +1561,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6">
         <v>50</v>
@@ -1570,7 +1572,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7">
         <v>60</v>
@@ -1581,7 +1583,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8">
         <v>70</v>
@@ -1592,7 +1594,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9">
         <v>30</v>
@@ -1603,7 +1605,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10">
         <v>40</v>
@@ -1614,7 +1616,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11">
         <v>40</v>
@@ -1640,19 +1642,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -17,13 +17,14 @@
     <sheet name="Offer" sheetId="4" r:id="rId8"/>
     <sheet name="Option" sheetId="10" r:id="rId9"/>
     <sheet name="Review" sheetId="11" r:id="rId10"/>
+    <sheet name="Instructions" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="96">
   <si>
     <t>Product_Code</t>
   </si>
@@ -175,9 +176,6 @@
     <t>10% Off</t>
   </si>
   <si>
-    <t>Available</t>
-  </si>
-  <si>
     <t>Review_Code</t>
   </si>
   <si>
@@ -308,6 +306,12 @@
   </si>
   <si>
     <t>Sold_Count</t>
+  </si>
+  <si>
+    <t>Available_Count</t>
+  </si>
+  <si>
+    <t>Make sure to change cell format to number with zero decimal places for integer values</t>
   </si>
 </sst>
 </file>
@@ -379,9 +383,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -714,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,6 +732,7 @@
     <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="18.28515625" customWidth="1"/>
     <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -747,16 +754,16 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -765,13 +772,13 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -779,43 +786,46 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>52</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" t="s">
         <v>53</v>
       </c>
-      <c r="F2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" t="s">
-        <v>54</v>
-      </c>
       <c r="I2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2">
+        <v>77</v>
+      </c>
+      <c r="J2" s="2">
         <v>140</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="2">
         <v>4</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="2">
         <v>2</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
         <v>0</v>
       </c>
     </row>
@@ -840,24 +850,50 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="79.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1237,19 +1273,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1257,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
         <v>43</v>
@@ -1271,10 +1307,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1285,7 +1321,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
         <v>41</v>
@@ -1299,7 +1335,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
         <v>42</v>
@@ -1313,7 +1349,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
         <v>48</v>
@@ -1344,7 +1380,7 @@
         <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1374,19 +1410,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1394,7 +1430,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -1464,10 +1500,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1528,7 +1564,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -1539,7 +1575,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -1550,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5">
         <v>40</v>
@@ -1561,7 +1597,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6">
         <v>50</v>
@@ -1572,7 +1608,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7">
         <v>60</v>
@@ -1583,7 +1619,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8">
         <v>70</v>
@@ -1594,7 +1630,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9">
         <v>30</v>
@@ -1605,7 +1641,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10">
         <v>40</v>
@@ -1616,7 +1652,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11">
         <v>40</v>
@@ -1642,19 +1678,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
